--- a/relatorios-sintese.xlsx
+++ b/relatorios-sintese.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25825"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Secretaria de Estado de Planejamento e Gestão\SUCT CGE - PACI 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\teletrabalho\PACI-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="465" documentId="11_C51B2D22AE9B37086392FE79FA85DB38A923B6E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3822F5B8-DD63-49CB-B1BE-FCECAD57A67D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
   </bookViews>
   <sheets>
-    <sheet name="SEI_relatorios" sheetId="1" r:id="rId1"/>
-    <sheet name="contatos_painel" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId1"/>
+    <sheet name="SEI_relatorios" sheetId="1" r:id="rId2"/>
+    <sheet name="contatos_painel" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">contatos_painel!$A$1:$H$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SEI_relatorios!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">contatos_painel!$A$1:$H$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SEI_relatorios!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <pivotCaches>
+    <pivotCache cacheId="8" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="259">
   <si>
     <t>Órgão/Entidade</t>
   </si>
@@ -851,12 +854,24 @@
   <si>
     <t>SEF, SEPLAG, SECULT, JUCEMG = dilação de prazo</t>
   </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Contagem de Formato</t>
+  </si>
+  <si>
+    <t>Contagem de Forma Extração</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -957,7 +972,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -970,9 +985,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Hyperlink" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -986,6 +1006,2215 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[relatorios-sintese.xlsx]Planilha1!Tabela dinâmica1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>estruturado</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>não disponível</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>relatório</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>semi-estruturado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C32-4360-AAA6-69B3C504EBE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="495656511"/>
+        <c:axId val="495642367"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="495656511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495642367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="495642367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495656511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre" refreshedDate="44862.707685185182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="60">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:M61" sheet="SEI_relatorios"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="Órgão/Entidade" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Data SEI" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-09-08T00:00:00" maxDate="2022-10-28T00:00:00"/>
+    </cacheField>
+    <cacheField name="Processo SEI" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Link Processo SEI" numFmtId="0">
+      <sharedItems longText="1"/>
+    </cacheField>
+    <cacheField name="Base" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Priorização" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
+    </cacheField>
+    <cacheField name="Formato" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="semi-estruturado"/>
+        <s v="relatório"/>
+        <s v="estruturado"/>
+        <s v="não disponível"/>
+        <s v="NA"/>
+        <m u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Anonimização" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Limpeza" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Forma Extração" numFmtId="0">
+      <sharedItems count="5">
+        <s v="automatizado"/>
+        <s v="manual"/>
+        <s v="não disponível"/>
+        <s v="?"/>
+        <s v="NA"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Unidades obtenção" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Equipe responsável" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="OBS" numFmtId="0">
+      <sharedItems containsBlank="1" longText="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="60">
+  <r>
+    <s v="HEMOMINAS"/>
+    <d v="2022-09-09T00:00:00"/>
+    <s v="1520.01.0009034/2022-53"/>
+    <s v="SEI - Processo"/>
+    <s v="Boletim estatístico"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="não"/>
+    <s v="sim"/>
+    <x v="0"/>
+    <s v="regionais"/>
+    <s v="Gerência de Supervisão e Acompanhamento"/>
+    <s v="base disponível em https://cecad365.sharepoint.com/:x:/r/sites/SUCTCGE/Documentos%20Compartilhados/PACI%202022/hemominas-prod_2022_jun__2_.xls?d=w38372f2f82a445aa86d96610df84d978&amp;csf=1&amp;web=1&amp;e=Pi516p"/>
+  </r>
+  <r>
+    <s v="SEDESE"/>
+    <d v="2022-09-08T00:00:00"/>
+    <s v="1520.01.0010148/2022-45"/>
+    <s v="SEI - Processo"/>
+    <s v="Programas Sociais"/>
+    <n v="1"/>
+    <x v="1"/>
+    <s v="sim"/>
+    <s v="sim"/>
+    <x v="0"/>
+    <s v="municípios"/>
+    <s v="Subsecretarias: Assistência Social, Direitos Humanos, Trabalho e Emprego, Esportes, Políticas s/ Drogas"/>
+    <s v="não se pode diferenciar se as indicações foram de bases ou grandes temas, apenas pela leitura do relatório"/>
+  </r>
+  <r>
+    <s v="SEDESE"/>
+    <d v="2022-09-08T00:00:00"/>
+    <s v="1520.01.0010148/2022-45"/>
+    <s v="SEI - Processo"/>
+    <s v="Instituições Participativas"/>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="sim"/>
+    <s v="sim"/>
+    <x v="1"/>
+    <s v="regionais"/>
+    <s v="Secretarias Executivas das Instituições Participativas"/>
+    <s v="não se pode diferenciar se as indicações foram de bases ou grandes temas, apenas pela leitura do relatório"/>
+  </r>
+  <r>
+    <s v="SEDESE"/>
+    <d v="2022-09-08T00:00:00"/>
+    <s v="1520.01.0010148/2022-45"/>
+    <s v="SEI - Processo"/>
+    <s v="Equipamentos socioassistenciais"/>
+    <n v="3"/>
+    <x v="1"/>
+    <s v="sim"/>
+    <s v="sim"/>
+    <x v="1"/>
+    <s v="municípios"/>
+    <s v="Subsecretaria de Assistência Social"/>
+    <s v="não se pode diferenciar se as indicações foram de bases ou grandes temas, apenas pela leitura do relatório"/>
+  </r>
+  <r>
+    <s v="SEDESE"/>
+    <d v="2022-09-08T00:00:00"/>
+    <s v="1520.01.0010148/2022-45"/>
+    <s v="SEI - Processo"/>
+    <s v="Fundos"/>
+    <n v="4"/>
+    <x v="0"/>
+    <s v="sim"/>
+    <s v="sim"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="Subsecretarias: Assistência Social, Direitos Humanos, Trabalho e Emprego."/>
+    <s v="não se pode diferenciar se as indicações foram de bases ou grandes temas, apenas pela leitura do relatório"/>
+  </r>
+  <r>
+    <s v="FHEMIG"/>
+    <d v="2022-10-10T00:00:00"/>
+    <s v="1520.01.0011492/2022-35"/>
+    <s v="SEI - Processo"/>
+    <s v="Escalas médicas"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="sim"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="Diretoria de Contratualização e Gestão da Informação"/>
+    <s v="não está claro se as bases indicadas já estão estruturadas, limpas e isentas de dados restringíveis, ou se foram sugestões da própria auditora no relatório - item análise"/>
+  </r>
+  <r>
+    <s v="FHEMIG"/>
+    <d v="2022-10-10T00:00:00"/>
+    <s v="1520.01.0011492/2022-35"/>
+    <s v="SEI - Processo"/>
+    <s v="Atendimentos a pacientes politraumatizados no HJXXIII"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="sim"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="Diretoria de Contratualização e Gestão da Informação"/>
+    <s v="não está claro se as bases indicadas já estão estruturadas, limpas e isentas de dados restringíveis, ou se foram sugestões da própria auditora no relatório - item análise"/>
+  </r>
+  <r>
+    <s v="FHEMIG"/>
+    <d v="2022-10-10T00:00:00"/>
+    <s v="1520.01.0011492/2022-35"/>
+    <s v="SEI - Processo"/>
+    <s v="Atendimentos a vítimas de grandes quimaduras"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="sim"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="Diretoria de Contratualização e Gestão da Informação"/>
+    <s v="não está claro se as bases indicadas já estão estruturadas, limpas e isentas de dados restringíveis, ou se foram sugestões da própria auditora no relatório - item análise"/>
+  </r>
+  <r>
+    <s v="FEAM"/>
+    <d v="2022-10-07T00:00:00"/>
+    <s v="1520.01.0011471/2022-20"/>
+    <s v="SEI - Processo"/>
+    <s v="Barragens"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="Superintendência de Gestão Ambiental (SUGA) – SEMAD"/>
+    <m/>
+  </r>
+  <r>
+    <s v="FEAM"/>
+    <d v="2022-10-07T00:00:00"/>
+    <s v="1520.01.0011471/2022-20"/>
+    <s v="SEI - Processo"/>
+    <s v="Resíduos sólidos"/>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="Superintendência de Gestão Ambiental (SUGA) – SEMAD"/>
+    <m/>
+  </r>
+  <r>
+    <s v="FEAM"/>
+    <d v="2022-10-07T00:00:00"/>
+    <s v="1520.01.0011471/2022-20"/>
+    <s v="SEI - Processo"/>
+    <s v="Qualidade do ar"/>
+    <n v="4"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="Superintendência de Gestão Ambiental (SUGA) – SEMAD"/>
+    <m/>
+  </r>
+  <r>
+    <s v="FEAM"/>
+    <d v="2022-10-07T00:00:00"/>
+    <s v="1520.01.0011471/2022-20"/>
+    <s v="SEI - Processo"/>
+    <s v="Autos de infração"/>
+    <n v="2"/>
+    <x v="3"/>
+    <s v="não disponível"/>
+    <s v="não disponível"/>
+    <x v="2"/>
+    <s v="não disponível"/>
+    <m/>
+    <s v="recomendação de solicitação à Subsecretaria de Fiscalização Ambiental – SUFIS da SEMAD, a_x000a_abertura de dados da base de dados relativa à “Fiscalização / Autos de Infração”, _x000a_que conforme consulta prévia, não se mostrou disponível canal digital IDE_x0002_Sisema2"/>
+  </r>
+  <r>
+    <s v="FAPEMIG"/>
+    <d v="2022-10-11T00:00:00"/>
+    <s v="1520.01.0009079/2020-08"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=23399940&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=41be79199e8a526a309307c4d41ff24d68fc4c79877edbb3935125e33ceeb364"/>
+    <s v="Bolsistas apoiados"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="não"/>
+    <s v="sim"/>
+    <x v="3"/>
+    <s v="central"/>
+    <s v="Diretoria de Ciênciaa, Tecnologia e Inovação"/>
+    <s v="relata que já está disponível, mas prioriza; disse que é necessário limpeza, alegando questões de propriedade intelectual (??) mas o cpf dos bolsistas já está anonimizado"/>
+  </r>
+  <r>
+    <s v="FAPEMIG"/>
+    <d v="2022-10-11T00:00:00"/>
+    <s v="1520.01.0009079/2020-08"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=23399940&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=41be79199e8a526a309307c4d41ff24d68fc4c79877edbb3935125e33ceeb364"/>
+    <s v="Instrumentos jurídicos"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="não"/>
+    <s v="sim"/>
+    <x v="3"/>
+    <s v="central"/>
+    <s v="Diretoria de Ciênciaa, Tecnologia e Inovação"/>
+    <s v="relata que já está disponível, mas prioriza"/>
+  </r>
+  <r>
+    <s v="FAPEMIG"/>
+    <d v="2022-10-11T00:00:00"/>
+    <s v="1520.01.0009079/2020-08"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=23399940&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=41be79199e8a526a309307c4d41ff24d68fc4c79877edbb3935125e33ceeb364"/>
+    <s v="Doações e permissões de uso"/>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="não"/>
+    <s v="sim"/>
+    <x v="1"/>
+    <s v="municípios"/>
+    <s v="Diretoria de Ciênciaa, Tecnologia e Inovação"/>
+    <s v="planilhas dentro de um relatório"/>
+  </r>
+  <r>
+    <s v="OGE"/>
+    <d v="2022-10-14T00:00:00"/>
+    <s v="1520.01.0011894/2022-45"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62611214&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=5fb38890a8a21efc7b7d01da94a0a45397646987f687a62c0c81dbbc459ffeaa"/>
+    <s v="Não identificou"/>
+    <s v="NA"/>
+    <x v="4"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <x v="4"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Diante disso, identificou-se que a maioria das manifestações não são necessariamente pedidos de acesso à informação, podendo-se perceber certo desconhecimento do_x000a_cidadão na escolha do canal de comunicação para realizar sua solicitação._x000a_Verificou-se, também, que quase a totalidade das manifestações amostradas e analisadas não se tratavam de informações de competência da OGE, mas sim de_x000a_outros órgãos/entidades, ou seja, não constituem parte de uma possível base de dadoscustodiada pela OGE e passível de abertura._x000a_A fim de identificar outras possíveis bases de dados existentes, a Controladoria Setorial procedeu à realização de entrevistas com os gestores da OGE. Diante disso, o Gabinete_x000a_da OGE informou que não há, no âmbito da instituição, nenhuma base de dados custodiadas pela Ouvidoria-Geral do Estado passível de abertura._x000d_"/>
+  </r>
+  <r>
+    <s v="SES"/>
+    <d v="2022-10-17T00:00:00"/>
+    <s v="1520.01.0012151/2021-93"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=45648870&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=57e6582eef98ed98b51e483ca728e9923f6be2671f939aadf2ce4bc9d77f6f49"/>
+    <m/>
+    <s v="NA"/>
+    <x v="4"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <x v="4"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Em atenção ao Comunicado AHCS n. 46.2022 e E-mail de 7.10.22 (54768862) a Controladoria Setorial da SES informa que a ação de Transparência - Dados Abertos não está prevista no PACI 2022 (40832484) aprovado pela CGE e SES. Por esse motivo e pelos expostos no Ofício CGE/CSET_SES nº. 15/2022 (49451663), informamos que a ação não será realizada no presente exercício. Ademais, o inventário/catálogo de dados da SES deve ser concluído somente em dezembro de 2022, o que, na perspectiva desta Controladoria, torna inoportuna a realização da ação até 31.10.22, conforme prazo definido pela SUTI."/>
+  </r>
+  <r>
+    <s v="ESP"/>
+    <d v="2022-10-17T00:00:00"/>
+    <s v="1520.01.0011790/2022-40"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62525332&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=f5548a6a2fb30b7be4286a22f9ca96b30a67a239cd89f8cbaabe7ae8bf887a52"/>
+    <s v="Ciclos de Formação do Projeto Saúde em Rede"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="não"/>
+    <s v="sim"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="Assessoria da Diretoria"/>
+    <s v="a base contempla o número de alunos participante das ações educacionais realizadas no projeto “Saúde em Rede” no exercício de 2022. Após análise realizada pela CSET e com base nas informações prestadas pela gestão, deve-se avaliar os custos e a viabilidade de tratamento e disponibilização dessa base, dada que a ação 1026, por ser tratar de um projeto específico, tem previsão de encerramento em 2023, não gerando mais dados a partir do ano de 2024. Ambas as bases estão em formato XLSX - Excel e possuem um formato semiestruturado; contêm, por município, o número de alunos participantes dos cursos ofertados pela ESPMG no exercício de 2022. As bases possuem nas linhas informações sobre os municípios._x000a_As primeiras colunas referem-se às informações, como por exemplo, código do município, código IBGE, etc. e as demais colunas ao nome dos cursos ofertados pelo_x000a_órgão. Verificou-se, também, que as bases possuem várias abas, uma para cada mês do exercício; a última coluna da aba referente ao mês de agosto contempla os dados_x000a_acumulados do número de alunos participantes por município de todo o exercício._x000d_"/>
+  </r>
+  <r>
+    <s v="ESP"/>
+    <d v="2022-10-17T00:00:00"/>
+    <s v="1520.01.0011790/2022-40"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62525332&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=f5548a6a2fb30b7be4286a22f9ca96b30a67a239cd89f8cbaabe7ae8bf887a52"/>
+    <s v="Ações Educacionais na Área de Saúde"/>
+    <n v="2"/>
+    <x v="0"/>
+    <s v="não"/>
+    <s v="sim"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="Assessoria da Diretoria"/>
+    <s v="a base consiste no compilado das ações educacionais realizadas na ESP-MG, pois contém os cursos ofertados pela instituição no ano de 2022, com indicação do número de alunos participantes por município. Ao constatar que as informações demonstram os resultados_x000a_5 SEI nº 1520.01.0009749/2022-51, evento nº 53915012. Ambas as bases estão em formato XLSX - Excel e possuem um formato semiestruturado; contêm, por município, o número de alunos participantes dos cursos ofertados pela ESPMG no exercício de 2022. As bases possuem nas linhas informações sobre os municípios. As primeiras colunas referem-se às informações, como por exemplo, código do município, código IBGE, etc. e as demais colunas ao nome dos cursos ofertados pelo_x000a_órgão. Verificou-se, também, que as bases possuem várias abas, uma para cada mês do exercício; a última coluna da aba referente ao mês de agosto contempla os dados_x000a_acumulados do número de alunos participantes por município de todo o exercício._x000d_"/>
+  </r>
+  <r>
+    <s v="SEMAD"/>
+    <d v="2022-10-20T00:00:00"/>
+    <s v="1520.01.0011471/2022-20"/>
+    <s v="SEI - Processo"/>
+    <s v="Licenciamento Ambiental"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="Subsecretaria de Regularização Ambiental"/>
+    <s v=" A base relacionada a licenciamento ambiental está diretamente conexa as_x000a_políticas executadas pelo Semad15, e possui obrigatoriedade de disponibilização_x000a_para atendimento da transparência ativa16. Esta base possui vinculação direta_x000a_com as ações finalísticas de meio ambiente no Plano Mineiro de_x000a_Desenvolvimento Integrado - PMDI17. A referida base já está disponibilizada no_x000a_IDE-Sisema e segue os critérios mínimos de dados abertos."/>
+  </r>
+  <r>
+    <s v="SEMAD"/>
+    <d v="2022-10-20T00:00:00"/>
+    <s v="1520.01.0011471/2022-20"/>
+    <s v="SEI - Processo"/>
+    <s v="Regularização Ambiental"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="Subsecretaria de Fiscalização Ambiental"/>
+    <s v="A base relativo a fiscalização ambiental está relacionada às políticas públicas de_x000a_competência da Semad,18 há obrigatoriedade legal de sua disponibilização.19_x000a_Esta base possui vinculação direta com as ações finalísticas de meio ambiente_x000a_no Plano Mineiro de Desenvolvimento Integrado - PMDI20. Esta base está_x000a_disponível no IDE-Sisema e cumpre os requisitos de dados abertos"/>
+  </r>
+  <r>
+    <s v="IGAM"/>
+    <d v="2022-10-20T00:00:00"/>
+    <s v="1520.01.0011471/2022-20"/>
+    <s v="SEI - Processo"/>
+    <s v="Qualidade da água"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="Gerência do Sistema Estadual da Informação em Recursos Hídricos - GEIRH"/>
+    <m/>
+  </r>
+  <r>
+    <s v="IGAM"/>
+    <d v="2022-10-20T00:00:00"/>
+    <s v="1520.01.0011471/2022-20"/>
+    <s v="SEI - Processo"/>
+    <s v="Outorga"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="Gerência do Sistema Estadual da Informação em Recursos Hídricos - GEIRH"/>
+    <m/>
+  </r>
+  <r>
+    <s v="IGAM"/>
+    <d v="2022-10-20T00:00:00"/>
+    <s v="1520.01.0011471/2022-20"/>
+    <s v="SEI - Processo"/>
+    <s v="Disponibilidade hídrica"/>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="Gerência do Sistema Estadual da Informação em Recursos Hídricos - GEIRH"/>
+    <m/>
+  </r>
+  <r>
+    <s v="IGAM"/>
+    <d v="2022-10-20T00:00:00"/>
+    <s v="1520.01.0011471/2022-20"/>
+    <s v="SEI - Processo"/>
+    <s v="Recursos Hídricos"/>
+    <n v="4"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="Gerência do Sistema Estadual da Informação em Recursos Hídricos - GEIRH"/>
+    <m/>
+  </r>
+  <r>
+    <s v="IGAM"/>
+    <d v="2022-10-20T00:00:00"/>
+    <s v="1520.01.0011471/2022-20"/>
+    <s v="SEI - Processo"/>
+    <s v="Bacia Hidrográfica"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="Gerência do Sistema Estadual da Informação em Recursos Hídricos - GEIRH"/>
+    <m/>
+  </r>
+  <r>
+    <s v="IEF"/>
+    <d v="2022-10-20T00:00:00"/>
+    <s v="1520.01.0011471/2022-20"/>
+    <s v="SEI - Processo"/>
+    <s v="Regularização Ambiental"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="Gerência de Monitoramento Territorial e Geoprocessamento - GEMOG"/>
+    <m/>
+  </r>
+  <r>
+    <s v="IEF"/>
+    <d v="2022-10-20T00:00:00"/>
+    <s v="1520.01.0011471/2022-20"/>
+    <s v="SEI - Processo"/>
+    <s v="Unidades de conservação"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="Gerência de Monitoramento Territorial e Geoprocessamento - GEMOG"/>
+    <m/>
+  </r>
+  <r>
+    <s v="IEF"/>
+    <d v="2022-10-20T00:00:00"/>
+    <s v="1520.01.0011471/2022-20"/>
+    <s v="SEI - Processo"/>
+    <s v="Fauna terrestre"/>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="Gerência de Monitoramento Territorial e Geoprocessamento - GEMOG"/>
+    <m/>
+  </r>
+  <r>
+    <s v="IEF"/>
+    <d v="2022-10-20T00:00:00"/>
+    <s v="1520.01.0011471/2022-20"/>
+    <s v="SEI - Processo"/>
+    <s v="Fauna aquática"/>
+    <n v="4"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="Gerência de Monitoramento Territorial e Geoprocessamento - GEMOG"/>
+    <m/>
+  </r>
+  <r>
+    <s v="CBMMG"/>
+    <d v="2022-10-24T00:00:00"/>
+    <s v="1520.01.0012245/2022-74"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62942558&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=cc071f06cd7e85a6bab8526c0c3390953fcf1c2833d61d4dcd3a8034f8a9b256"/>
+    <s v="Processos licitatórios e contratos"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="Diretoria de Logística e Finanças"/>
+    <s v="Atualmente, o CBMMG disponibiliza na página institucional, menu “transparência”, em “compras e contratos”, as contratações executadas pelo órgão em medidas de enfrentamento ao COVID-19, através do endereço eletrônico . Ainda em consulta ao site institucional, menu transparência, para consulta aos processos de contratação em andamento, o solicitante é direcionado ao Portal de Compras, endereço , e, para consulta aos processos de compras concluídos, é direcionado ao endereço . Destarte, cumpre destacar que os processos licitatórios e contratos são realizadas pelo Estado de Minas Gerais, sendo o Corpo de Bombeiros apenas um intermediador. Desta forma, seria conveniente que o Estado de Minas Gerais, enquanto custodiante destas bases de dados (SIAD, SIAF, Portal de Compras...), avaliasse a conformidade e oportunidade para disponibiliza-las em formato de dados abertos."/>
+  </r>
+  <r>
+    <s v="CBMMG"/>
+    <d v="2022-10-24T00:00:00"/>
+    <s v="1520.01.0012245/2022-74"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62942558&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=cc071f06cd7e85a6bab8526c0c3390953fcf1c2833d61d4dcd3a8034f8a9b256"/>
+    <s v="Licenciamento/Alvará"/>
+    <n v="2"/>
+    <x v="0"/>
+    <s v="sim"/>
+    <s v="sim"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="Diretoria de Atividades Técnicas CBMMG"/>
+    <s v="Conforme relatado pela Unidade que possui acesso a base de dados de referência, esta_x000a_base é passível de abertura. Porém, a Unidade manifesta que a base de dados do Infoscip_x000a_contém informações pessoais dos usuários (nome, endereço e CPF), sensíveis (planta de_x000a_edificações) e estratégicas (status de andamento de regularização), sendo então_x000a_desaconselhada a abertura._x000a_Foi destacado ainda que, toda a base de dados do Infoscip encontra-se hospedada em_x000a_banco de dados digital, no entanto, o acesso automatizado demanda investimento_x000a_financeiro para desenvolvimento de novas funcionalidades. Há necessidade ainda_x000a_de investimentos para tratamento destes dados de modo a possibilitar a integração com o_x000a_Portal de Dados Abertos. O Infoscip já disponibiliza dados de forma aberta, inclusive no aplicativo MGApp, em especial referente à consulta da situação do licenciamento das edificações e eventos perante o CBMMG"/>
+  </r>
+  <r>
+    <s v="CBMMG"/>
+    <d v="2022-10-24T00:00:00"/>
+    <s v="1520.01.0012245/2022-74"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62942558&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=cc071f06cd7e85a6bab8526c0c3390953fcf1c2833d61d4dcd3a8034f8a9b256"/>
+    <s v="Ocorrências"/>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="2º Seção do EstadoMaior"/>
+    <s v="Conforme relatado pela Unidade que possui acesso a base de dados de referência, esta_x000a_base é passível de abertura. Foi destacado que, atualmente, a Bisp (base de dados única_x000a_do Sisp) ainda se encontra em processo de implementação pela Prodemge. Dessa forma,_x000a_os dados provenientes dos sistemas Reds e Cad (os únicos utilizados atualmente pelo_x000a_Cinsp) são obtidos por meio de relatórios transacionais criados pela Prodemge e_x000a_do Armazém de Informações do SIDS. Tais dados requerem um tratamento prévio para_x000a_posterior disponibilização aos diversos setores do CBMMG, bem como ao atendimento_x000a_das demandas de Transparência Passiva."/>
+  </r>
+  <r>
+    <s v="CBMMG"/>
+    <d v="2022-10-24T00:00:00"/>
+    <s v="1520.01.0012245/2022-74"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62942558&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=cc071f06cd7e85a6bab8526c0c3390953fcf1c2833d61d4dcd3a8034f8a9b256"/>
+    <s v="Servidores"/>
+    <n v="4"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="Diretoria de Recursos Humanos"/>
+    <s v="Conforme relatado pela Unidade que possui acesso a base de dados de referência, esta base é passível de abertura."/>
+  </r>
+  <r>
+    <s v="AGE"/>
+    <d v="2022-10-26T00:00:00"/>
+    <s v="1080.01.0101728/2022-24"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=arvore_visualizar&amp;acao_origem=procedimento_visualizar&amp;id_procedimento=63208355&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=6f0f9071d1b52eb89a59ce176688e9c0569f93e68c265de7648397d78c88f330"/>
+    <s v="precatórios"/>
+    <n v="1"/>
+    <x v="1"/>
+    <s v="não"/>
+    <s v="sim"/>
+    <x v="1"/>
+    <s v="regionais"/>
+    <s v="Procuradoria do Tesouro, Precatórios e Trabalho"/>
+    <s v="A consulta da sociedade mineira à relação anual de valores quitados em precatórios pelo Estado constitui uma das atividades finalísticas do órgão e é bastante demandada, conforme constatado"/>
+  </r>
+  <r>
+    <s v="AGE"/>
+    <d v="2022-10-26T00:00:00"/>
+    <s v="1080.01.0101728/2022-24"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=arvore_visualizar&amp;acao_origem=procedimento_visualizar&amp;id_procedimento=63208355&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=6f0f9071d1b52eb89a59ce176688e9c0569f93e68c265de7648397d78c88f330"/>
+    <s v="dívida ativa"/>
+    <n v="2"/>
+    <x v="0"/>
+    <s v="não"/>
+    <s v="sim"/>
+    <x v="1"/>
+    <s v="regionais"/>
+    <s v="Procuradoria da Dívida Ativa"/>
+    <s v="Os serviços disponibilizados no site da AGE em relação ao tema “ Dívida Ativa” também constituem fonte de consultas e dúvidas da sociedade mineira em geral, tais como: consulta de protestos, emissão de DAE, quitação de honorários, parcelamento de débitos e outros."/>
+  </r>
+  <r>
+    <s v="TV MINAS/EMC"/>
+    <d v="2022-10-26T00:00:00"/>
+    <s v="2210.01.0000862/2022-12"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63075354&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=a3b5bd066afa6b89f1f0190e38a179b5364ad588cbe3145fd6011db53c7e5340"/>
+    <s v="Municípios do Estado cobertos pelo sinal da Rede Minas – Analógico e digital"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="Supervisão de operações e de radiodifusão e operações no interior"/>
+    <m/>
+  </r>
+  <r>
+    <s v="TV MINAS/EMC"/>
+    <d v="2022-10-26T00:00:00"/>
+    <s v="2210.01.0000862/2022-12"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63075354&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=a3b5bd066afa6b89f1f0190e38a179b5364ad588cbe3145fd6011db53c7e5340"/>
+    <s v="Acompanhamento do processo de digitalização do sinal da Rede Minas no Estado"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="Supervisão de projetos e expansão no interior"/>
+    <m/>
+  </r>
+  <r>
+    <s v="TV MINAS/EMC"/>
+    <d v="2022-10-26T00:00:00"/>
+    <s v="2210.01.0000862/2022-12"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63075354&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=a3b5bd066afa6b89f1f0190e38a179b5364ad588cbe3145fd6011db53c7e5340"/>
+    <s v="Projetos resultantes de captação de recursos via Lei de Incentivo à Cultura"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="sim"/>
+    <s v="sim"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="Gerente de Fomento, Projetos e Parcerias"/>
+    <m/>
+  </r>
+  <r>
+    <s v="TV MINAS/EMC"/>
+    <d v="2022-10-26T00:00:00"/>
+    <s v="2210.01.0000862/2022-12"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63075354&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=a3b5bd066afa6b89f1f0190e38a179b5364ad588cbe3145fd6011db53c7e5340"/>
+    <s v="Capacitação Municipal para Fomento do Audiovisual"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="Gerência de Produção e Programação Audiovisual Multiplataformas"/>
+    <m/>
+  </r>
+  <r>
+    <s v="SECRETARIA GERAL"/>
+    <d v="2022-10-26T00:00:00"/>
+    <s v="1520.01.0010129/2022-73"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=60381710&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=c4651a9863b943a24b3c96ad6a729148367fb74e89f2d1d22dd1d0d324634a83"/>
+    <s v="Despesas com serviços de publicidade/ Investimentos anuais em veículos de comunicação"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="Equipe Subsecom (Secretaria-Geral) – inserção dos dados no sistema._x000a__x000a_Assessoria Estratégica (Segov/MG) – equipe responsável pelo sistema onde estão as informações."/>
+    <m/>
+  </r>
+  <r>
+    <s v="SECRETARIA GERAL"/>
+    <d v="2022-10-26T00:00:00"/>
+    <s v="1520.01.0010129/2022-73"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=60381710&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=c4651a9863b943a24b3c96ad6a729148367fb74e89f2d1d22dd1d0d324634a83"/>
+    <s v="Despesas com serviço de publicidade/Campanhas publicitárias"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="Equipe Subsecom (Secretaria-Geral) – inserção dos dados no sistema._x000a__x000a_Assessoria Estratégica (Segov/MG) – equipe responsável pelo sistema onde estão as informações."/>
+    <m/>
+  </r>
+  <r>
+    <s v="SEGOV"/>
+    <d v="2022-10-26T00:00:00"/>
+    <s v="1520.01.0012529/2022-69"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63274726&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=cafe0056f8f29a1589440b71bfb482a0c59645178335714c2f4c7b4e83c9d726"/>
+    <s v="Portfólio de Emendas"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="Superintendência Central de Convênios e Parcerias (SCCP) (Segov/MG)._x000a__x000a_Assessoria Estratégica (Segov/MG) – equipe responsável pelo sistema onde estão as informações."/>
+    <m/>
+  </r>
+  <r>
+    <s v="SEGOV"/>
+    <d v="2022-10-26T00:00:00"/>
+    <s v="1520.01.0012529/2022-69"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63274726&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=cafe0056f8f29a1589440b71bfb482a0c59645178335714c2f4c7b4e83c9d726"/>
+    <s v="Relatório de Instrumentos Registrados_20220929_093216"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="sim"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="Superintendência Central de Convênios e Parcerias (SCCP) (Segov/MG)._x000a__x000a_Assessoria Estratégica (Segov/MG) – equipe responsável pelo sistema onde estão as informações."/>
+    <m/>
+  </r>
+  <r>
+    <s v="IEPHA"/>
+    <d v="2022-10-27T00:00:00"/>
+    <s v="1520.01.0011428/2022-17"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62192711&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=e87887be3794d388b692b30f0ca8d91615137da311b5fb4aef6ac749c67bdc75"/>
+    <s v="Informações sobre bens inventariados, tombados no Estado"/>
+    <n v="1"/>
+    <x v="1"/>
+    <s v="sim"/>
+    <s v="não"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="Assessoria de Comunicação"/>
+    <s v="localizadas no site do IEPHA, nos menus “Programas e Ações”/ aba “Patrimônio Cultural Protegido pelo Estado”; “Serviços”; “Publicações”/ “Guia dos Bens Tombados”; e “Fale com Iepha” /aba “Dúvidas Frequentes”"/>
+  </r>
+  <r>
+    <s v="IEPHA"/>
+    <d v="2022-10-27T00:00:00"/>
+    <s v="1520.01.0011428/2022-17"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62192711&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=e87887be3794d388b692b30f0ca8d91615137da311b5fb4aef6ac749c67bdc75"/>
+    <s v="Informações sobre ICMS Cultural"/>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="Assessoria de Comunicação_x000a_Diretoria de Promoção"/>
+    <s v="localizadas no site do IEPHA, nos menus “Programas e Ações” / aba “ICMS Patrimônio Cultural”; e “Fale com Iepha” /aba “Dúvidas Frequentes”"/>
+  </r>
+  <r>
+    <s v="IEPHA"/>
+    <d v="2022-10-27T00:00:00"/>
+    <s v="1520.01.0011428/2022-17"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62192711&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=e87887be3794d388b692b30f0ca8d91615137da311b5fb4aef6ac749c67bdc75"/>
+    <s v="Informações sobre projeto arquitetônico, paisagístico, licenciamento ambiental e patrimônio Imaterial"/>
+    <n v="3"/>
+    <x v="1"/>
+    <s v="sim"/>
+    <s v="não"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="Assessoria de Comunicação_x000a_Diretoria de Conservação e Restauração_x000a_Diretoria de Proteção e Memória"/>
+    <s v="localizadas no site do IEPHA, nos menus “Programas e Ações” / aba “Patrimônio Cultural protegido pelo Estado” e a aba “Cadastros do Patrimônio Cultural”; “Serviços”; “Publicações”/ “Guia dos Bens Tombados”; e “Fale com Iepha” /aba “Dúvidas Frequentes”"/>
+  </r>
+  <r>
+    <s v="IMA"/>
+    <d v="2022-10-27T00:00:00"/>
+    <s v="1520.01.0012554/2022-73"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63323458&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=5828d816384aa23fc62f0755f28352c8132394646d3e103f7ad117465ef5ebea"/>
+    <s v="Guias de Trânsito Animal emitidas"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="NIM – Núcleo de Inovação e Modernização Institucional_x000a_GDA – Gerência de Defesa Agropecuária Animal"/>
+    <m/>
+  </r>
+  <r>
+    <s v="IMA"/>
+    <d v="2022-10-27T00:00:00"/>
+    <s v="1520.01.0012554/2022-73"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63323458&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=5828d816384aa23fc62f0755f28352c8132394646d3e103f7ad117465ef5ebea"/>
+    <s v="Agrotóxicos cadastrados"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="GDV – Gerência de Defesa Agropecuária Vegetal"/>
+    <m/>
+  </r>
+  <r>
+    <s v="IMA"/>
+    <d v="2022-10-27T00:00:00"/>
+    <s v="1520.01.0012554/2022-73"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63323458&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=5828d816384aa23fc62f0755f28352c8132394646d3e103f7ad117465ef5ebea"/>
+    <s v="Produtos veterinários - Estabelecimentos credenciados"/>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="GDA – Gerência de Defesa Agropecuária Animal"/>
+    <m/>
+  </r>
+  <r>
+    <s v="IMA"/>
+    <d v="2022-10-27T00:00:00"/>
+    <s v="1520.01.0012554/2022-73"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63323458&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=5828d816384aa23fc62f0755f28352c8132394646d3e103f7ad117465ef5ebea"/>
+    <s v="Produtores certificados"/>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="GEC - Gerência de Certificação"/>
+    <m/>
+  </r>
+  <r>
+    <s v="IMA"/>
+    <d v="2022-10-27T00:00:00"/>
+    <s v="1520.01.0012554/2022-73"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63323458&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=5828d816384aa23fc62f0755f28352c8132394646d3e103f7ad117465ef5ebea"/>
+    <s v="Estabelecimentos registrados"/>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="não"/>
+    <s v="não"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="GIP – Gerência de Inspeção de Produtos de Origem Animal"/>
+    <m/>
+  </r>
+  <r>
+    <s v="SEJUSP"/>
+    <d v="2022-10-27T00:00:00"/>
+    <s v="1520.01.0012572/2022-72"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae"/>
+    <s v="Dados de criminalidade (homicídio, feminicídio, estupro, roubo, furto e outros crimes)"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="sim"/>
+    <s v="sim"/>
+    <x v="0"/>
+    <s v="central"/>
+    <s v="SOSP*1 - Superintendência do Observatório de Segurança Pública"/>
+    <s v="compreende informações contidas nas bases de dados integradas de segurança pública sobre os principais crimes praticados no Estado de Minas Gerais. Os dados de criminalidade são disponibilizados em formato aberto no sítio institucional do órgão e o compartilhamento dos dados encontra-se em processo de autorização para a divulgação no Portal de Dados Abertos do Estado de Minas Gerais, conforme proposta apresentada pela Superintendência do Observatório de Segurança Pública - SOSP no SEI 1450.01.0145420/2022-88."/>
+  </r>
+  <r>
+    <s v="SEJUSP"/>
+    <d v="2022-10-27T00:00:00"/>
+    <s v="1520.01.0012572/2022-72"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae"/>
+    <s v="Programas de prevenção à criminalidade"/>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="sim"/>
+    <s v="sim"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="SUPEC*4 - Subsecretaria de Prevenção à Criminalidade"/>
+    <s v="compreende informações sobre ações de prevenção e redução de violências e criminalidades incidentes sobre determinados territórios e grupos mais vulneráveis, tais como, número de atendimentos por programa de prevenção social à criminalidade, número de intervenções em casos de violência contra a mulher, forma de chegada ao programa social de inclusão de egressos dos Sistemas Prisional e Socioeducativo, número de egressos e familiares atendidos, sexo, faixa etária, raça/cor, grau de escolaridade, situação ocupacional, vulnerabilidades trabalhadas pelo programa, tipo de liberação, número de pessoas em cumprimento de alternativas penais, tipo de alternativa penal, tipo de delito por tema, etc. Os dados relacionados aos programas de prevenção à criminalidade são disponibilizados no sítio institucional do órgão, na aba referente à &quot;Prevenção&quot;, em portfólio e infográfico, ambos em formato &quot;PDF&quot; (não estruturado), o que inviabiliza ou dificulta a reutilização desses dados. O conjunto de dados sobre programas de prevenção à criminalidade poderá ser compartilhado no Portal de Dados Abertos do Estado de Minas Gerais, dado o seu potencial de utilização pela sociedade."/>
+  </r>
+  <r>
+    <s v="SEJUSP"/>
+    <d v="2022-10-27T00:00:00"/>
+    <s v="1520.01.0012572/2022-72"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae"/>
+    <s v="Quantitativo de adolescentes e medidas socioeducativas"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="sim"/>
+    <s v="sim"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="Superintendência Educacional de Segurança Pública; SUASE"/>
+    <s v="compreende informações sobre o Sistema Socioeducativo, tais como, quantidade de adolescentes em cumprimento de internação provisória, internação definitiva, internação sanção e semiliberdade, por sexo, faixa etária, raça/cor, estado civil, se possui filho, se trabalhava antes do acolhimento, renda familiar, escolaridade na data do acolhimento, escolaridade da mãe, uso de álcool e outras drogas, etc.Os dados relacionados ao Sistema Socioeducativo são disponibilizados no sítio institucional do órgão, na aba referente ao &quot;Socioeducativo&quot;, de duas formas: mediante manual explicativo e infográficos, ambos em formato &quot;PDF&quot; (não estruturado), o que inviabiliza ou dificulta a reutilização desses dados; mediante formato &quot;XSLX&quot;(semi-estruturado) do Microsoft Office Excel, que não possibilita seu uso irrestrito e automatizado por meio da Web. Não obstante, o compartilhamento das bases de dados do Sistema Socioeducativo, para conversão em formato CSV, encontra-se em processo de autorização para a divulgação no Portal de Dados Abertos do Estado de Minas Gerais, conforme proposta apresentada pela SOSP no SEI 1450.01.0145420/2022-88"/>
+  </r>
+  <r>
+    <s v="SEJUSP"/>
+    <d v="2022-10-27T00:00:00"/>
+    <s v="1520.01.0012572/2022-72"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae"/>
+    <s v="Informações diversas sobre indivíduos privados de liberdade (perfil / quantitativo) e número de vagas no sistema prisional"/>
+    <n v="3"/>
+    <x v="4"/>
+    <s v="sim"/>
+    <s v="sim"/>
+    <x v="4"/>
+    <s v="central"/>
+    <s v="DEPEN*5 - Departamento Penitenciário de Minas Gerais"/>
+    <s v="compreende informações sobre o Sistema Prisional, tais como,população prisional por situação de prisão/regime (provisório, fechado, semiaberto e aberto), ano, mês, unidade prisional, Risp, Município, população prisional por sexo, faixa etária, raça/cor, idade detalhada, ano, mês, unidade prisional, Risp, Município, vagas das unidades prisionais, por ano, mês, unidade prisional, Risp, Município, quantidade de presos trabalhando e estudando, por unidade prisional, ano, mês, Risp, Município,etc. Em que pese os dados relacionados ao Sistema Prisional não estarem disponibilizados no sítio institucional do órgão, o compartilhamento desses dados encontra-se em processo de autorização para a divulgação no Portal de Dados Abertos do Estado de Minas Gerais, conforme proposta apresentada pela SOSP no SEI 1450.01.0145420/2022-88"/>
+  </r>
+  <r>
+    <s v="SEJUSP"/>
+    <d v="2022-10-27T00:00:00"/>
+    <s v="1520.01.0012572/2022-72"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae"/>
+    <s v="Quantitativo de indígenas presos"/>
+    <n v="3"/>
+    <x v="4"/>
+    <s v="sim"/>
+    <s v="sim"/>
+    <x v="4"/>
+    <s v="central"/>
+    <s v="DEPEN*5 - Departamento Penitenciário de Minas Gerais"/>
+    <s v="compreende informações sobre o Sistema Prisional, tais como,população prisional por situação de prisão/regime (provisório, fechado, semiaberto e aberto), ano, mês, unidade prisional, Risp, Município, população prisional por sexo, faixa etária, raça/cor, idade detalhada, ano, mês, unidade prisional, Risp, Município, vagas das unidades prisionais, por ano, mês, unidade prisional, Risp, Município, quantidade de presos trabalhando e estudando, por unidade prisional, ano, mês, Risp, Município,etc. Em que pese os dados relacionados ao Sistema Prisional não estarem disponibilizados no sítio institucional do órgão, o compartilhamento desses dados encontra-se em processo de autorização para a divulgação no Portal de Dados Abertos do Estado de Minas Gerais, conforme proposta apresentada pela SOSP no SEI 1450.01.0145420/2022-88"/>
+  </r>
+  <r>
+    <s v="SEJUSP"/>
+    <d v="2022-10-27T00:00:00"/>
+    <s v="1520.01.0012572/2022-72"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae"/>
+    <s v="Concurso público"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="sim"/>
+    <s v="sim"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="SESG*2 - Superintendência Educacional de Segurança Pública"/>
+    <s v="consulta existente no PdT; compreende informações sobre cargos, quantidade de vagas, números de candidatos inscritos e aprovados, dentre outras. Esse conjunto de dados não está contemplado no sítio institucional do órgão, em dinâmica de transparência ativa, constando no sítio eletrônico, somente, a íntegra dos editais de concursos públicos para provimentos de cargos, a relação dos aprovados e convocações.O conjunto de dados sobre concurso público poderá ser compartilhado no Portal de Dados Abertos do Estado de Minas Gerais, dado o seu potencial de utilização pela sociedade"/>
+  </r>
+  <r>
+    <s v="SEJUSP"/>
+    <d v="2022-10-27T00:00:00"/>
+    <s v="1520.01.0012572/2022-72"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae"/>
+    <s v="Processo seletivo simplificado"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="sim"/>
+    <s v="sim"/>
+    <x v="1"/>
+    <s v="central"/>
+    <s v="SESG*2 - Superintendência Educacional de Segurança Pública"/>
+    <s v="compreende informações sobre cargos, quantidade de vagas, números de candidatos inscritos e aprovados, dentre outras. Esse conjunto de dados não está contemplado no sítio institucional do órgão, em dinâmica de transparência ativa, constando no sítio eletrônico, somente, a íntegra dos editais de processos seletivos simplificados destinados à seleção de candidatos para preenchimento de cargos, a relação dos aprovados e convocações. O conjunto de dados sobre processos seletivos simplificados poderá ser compartilhado no Portal de Dados Abertos do Estado de Minas Gerais, dado o seu potencial de utilização pela sociedade."/>
+  </r>
+  <r>
+    <s v="SEJUSP"/>
+    <d v="2022-10-27T00:00:00"/>
+    <s v="1520.01.0012572/2022-72"/>
+    <s v="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae"/>
+    <s v="Quantitativo de cargos de provimento efetivo das carreiras da SEJUSP"/>
+    <n v="6"/>
+    <x v="4"/>
+    <s v="não"/>
+    <s v="sim"/>
+    <x v="4"/>
+    <s v="central"/>
+    <s v="SRHU*6 - Superintendência de Recursos Humanos"/>
+    <s v="compreende informações sobre cargos existentes (ocupados e desocupados), quantitativo de servidores ativos por cargo e unidade administrativa, etc. O conjunto de dados sobre quantitativo de cargos de provimento efetivo das carreiras da SEJUSP não está disponibilizado no sítio institucional do órgão, mas poderá ser compartilhado no Portal de Dados Abertos do Estado de Minas Gerais, dado o seu potencial de utilização pela sociedade"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G1:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de Forma Extração" fld="9" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de Formato" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1250,15 +3479,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="12">
+        <v>33</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="12">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="12">
+        <v>12</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="12">
+        <v>9</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="12">
+        <v>60</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="H7" s="12">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
@@ -1273,7 +3626,7 @@
     <col min="12" max="12" width="48.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1323,7 +3676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1364,7 +3717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1405,7 +3758,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1446,7 +3799,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1487,7 +3840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1528,7 +3881,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1569,7 +3922,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1610,7 +3963,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1651,7 +4004,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1689,7 +4042,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1727,7 +4080,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1765,7 +4118,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1803,7 +4156,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1844,7 +4197,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1885,7 +4238,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1926,7 +4279,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -1967,7 +4320,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75">
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -1980,11 +4333,32 @@
       <c r="D18" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" t="s">
+        <v>74</v>
+      </c>
       <c r="M18" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -2025,7 +4399,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -2066,7 +4440,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -2107,7 +4481,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -2148,7 +4522,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -2186,7 +4560,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -2224,7 +4598,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -2262,7 +4636,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -2300,7 +4674,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -2338,7 +4712,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -2376,7 +4750,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -2414,7 +4788,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -2452,7 +4826,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -2490,7 +4864,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -2531,7 +4905,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>108</v>
       </c>
@@ -2572,7 +4946,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -2613,7 +4987,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -2654,7 +5028,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>123</v>
       </c>
@@ -2695,7 +5069,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -2736,7 +5110,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>132</v>
       </c>
@@ -2774,7 +5148,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -2812,7 +5186,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>132</v>
       </c>
@@ -2850,7 +5224,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>132</v>
       </c>
@@ -2888,7 +5262,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75">
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>143</v>
       </c>
@@ -2926,7 +5300,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -2964,7 +5338,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75">
+    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>149</v>
       </c>
@@ -3002,7 +5376,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75">
+    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>149</v>
       </c>
@@ -3040,7 +5414,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -3081,7 +5455,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="30.75">
+    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -3122,7 +5496,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="45.75">
+    <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>155</v>
       </c>
@@ -3163,7 +5537,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="45.75">
+    <row r="49" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>167</v>
       </c>
@@ -3201,7 +5575,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>167</v>
       </c>
@@ -3239,7 +5613,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>167</v>
       </c>
@@ -3277,7 +5651,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>167</v>
       </c>
@@ -3315,7 +5689,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>167</v>
       </c>
@@ -3353,7 +5727,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>180</v>
       </c>
@@ -3394,7 +5768,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>180</v>
       </c>
@@ -3435,7 +5809,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -3476,7 +5850,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>180</v>
       </c>
@@ -3517,7 +5891,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>180</v>
       </c>
@@ -3558,7 +5932,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -3599,7 +5973,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -3640,7 +6014,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>180</v>
       </c>
@@ -3682,76 +6056,76 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M1"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=23399940&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=41be79199e8a526a309307c4d41ff24d68fc4c79877edbb3935125e33ceeb364" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=23399940&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=41be79199e8a526a309307c4d41ff24d68fc4c79877edbb3935125e33ceeb364" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=23399940&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=41be79199e8a526a309307c4d41ff24d68fc4c79877edbb3935125e33ceeb364" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D17" r:id="rId16" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62611214&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=5fb38890a8a21efc7b7d01da94a0a45397646987f687a62c0c81dbbc459ffeaa" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D18" r:id="rId17" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=45648870&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=57e6582eef98ed98b51e483ca728e9923f6be2671f939aadf2ce4bc9d77f6f49" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D19" r:id="rId18" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62525332&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=f5548a6a2fb30b7be4286a22f9ca96b30a67a239cd89f8cbaabe7ae8bf887a52" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D20" r:id="rId19" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62525332&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=f5548a6a2fb30b7be4286a22f9ca96b30a67a239cd89f8cbaabe7ae8bf887a52" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{E329BA14-DFC9-47DB-A039-388017D7A69B}"/>
-    <hyperlink ref="D23" r:id="rId21" xr:uid="{DA879B18-68B9-401B-B295-435F22ECB800}"/>
-    <hyperlink ref="D28" r:id="rId22" xr:uid="{5CB65463-1F87-4141-9DAE-8752040D37B3}"/>
-    <hyperlink ref="D22" r:id="rId23" xr:uid="{BB8CE285-0099-4EB9-BD86-16E980E0F394}"/>
-    <hyperlink ref="D24" r:id="rId24" xr:uid="{F4C6623E-758E-4236-824B-97F29708F06F}"/>
-    <hyperlink ref="D25" r:id="rId25" xr:uid="{E5E65E84-ECB3-4F53-B709-29BC90422A50}"/>
-    <hyperlink ref="D26" r:id="rId26" xr:uid="{3AB1388C-80A3-46F8-9D3B-8540EB2F5311}"/>
-    <hyperlink ref="D27" r:id="rId27" xr:uid="{42A65158-7DAE-4EE3-8F43-EDC2D8EC237F}"/>
-    <hyperlink ref="D30" r:id="rId28" xr:uid="{EA0F29DE-132D-401B-8691-EE8A85289DAC}"/>
-    <hyperlink ref="D29" r:id="rId29" xr:uid="{079FBD9A-0472-426F-B1E0-916B277F3E4C}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{0714DDDC-B409-44CF-9E8D-10DCF804B567}"/>
-    <hyperlink ref="D32" r:id="rId31" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62942558&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=cc071f06cd7e85a6bab8526c0c3390953fcf1c2833d61d4dcd3a8034f8a9b256" xr:uid="{C53F4C4D-4AFA-464E-B3CE-89B5D4F7EAD2}"/>
-    <hyperlink ref="D33" r:id="rId32" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62942558&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=cc071f06cd7e85a6bab8526c0c3390953fcf1c2833d61d4dcd3a8034f8a9b256" xr:uid="{9F108A66-99BE-4FB0-BFDF-C6A37976C453}"/>
-    <hyperlink ref="D34" r:id="rId33" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62942558&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=cc071f06cd7e85a6bab8526c0c3390953fcf1c2833d61d4dcd3a8034f8a9b256" xr:uid="{9CB8AA24-9D28-442C-AB81-99D8B5CB3A79}"/>
-    <hyperlink ref="D35" r:id="rId34" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62942558&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=cc071f06cd7e85a6bab8526c0c3390953fcf1c2833d61d4dcd3a8034f8a9b256" xr:uid="{C199550F-CAA3-46CB-972D-F3017912ED80}"/>
-    <hyperlink ref="D36" r:id="rId35" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=arvore_visualizar&amp;acao_origem=procedimento_visualizar&amp;id_procedimento=63208355&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=6f0f9071d1b52eb89a59ce176688e9c0569f93e68c265de7648397d78c88f330" xr:uid="{C12AD119-EC57-4E48-B5A3-A171B085D247}"/>
-    <hyperlink ref="D37" r:id="rId36" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=arvore_visualizar&amp;acao_origem=procedimento_visualizar&amp;id_procedimento=63208355&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=6f0f9071d1b52eb89a59ce176688e9c0569f93e68c265de7648397d78c88f330" xr:uid="{91DBA3A9-EDDE-4A65-82C6-8D24D0AB2F84}"/>
-    <hyperlink ref="D38" r:id="rId37" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63075354&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=a3b5bd066afa6b89f1f0190e38a179b5364ad588cbe3145fd6011db53c7e5340" xr:uid="{C05E821A-BEFE-4C04-B75E-B86A47E78FB7}"/>
-    <hyperlink ref="D39" r:id="rId38" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63075354&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=a3b5bd066afa6b89f1f0190e38a179b5364ad588cbe3145fd6011db53c7e5340" xr:uid="{9E806BE9-54D8-4FCC-8C65-CD6C47317993}"/>
-    <hyperlink ref="D40" r:id="rId39" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63075354&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=a3b5bd066afa6b89f1f0190e38a179b5364ad588cbe3145fd6011db53c7e5340" xr:uid="{A586B3B7-E74A-4672-A173-A839AA525527}"/>
-    <hyperlink ref="D41" r:id="rId40" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63075354&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=a3b5bd066afa6b89f1f0190e38a179b5364ad588cbe3145fd6011db53c7e5340" xr:uid="{B5292EBE-0621-434F-89FB-A9B6904C7D84}"/>
-    <hyperlink ref="D42" r:id="rId41" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=60381710&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=c4651a9863b943a24b3c96ad6a729148367fb74e89f2d1d22dd1d0d324634a83" xr:uid="{5C404F48-403A-4676-8963-8F916365227A}"/>
-    <hyperlink ref="D43" r:id="rId42" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=60381710&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=c4651a9863b943a24b3c96ad6a729148367fb74e89f2d1d22dd1d0d324634a83" xr:uid="{7EA6FECA-1B4F-4F79-BF33-94904D711DB3}"/>
-    <hyperlink ref="D44" r:id="rId43" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63274726&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=cafe0056f8f29a1589440b71bfb482a0c59645178335714c2f4c7b4e83c9d726" xr:uid="{4BA9AC2E-3F71-4E10-ABD8-CF5AA96529BC}"/>
-    <hyperlink ref="D45" r:id="rId44" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63274726&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=cafe0056f8f29a1589440b71bfb482a0c59645178335714c2f4c7b4e83c9d726" xr:uid="{E0B7F6A7-17A9-47B6-B9FA-B9B8595F1691}"/>
-    <hyperlink ref="D46" r:id="rId45" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62192711&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=e87887be3794d388b692b30f0ca8d91615137da311b5fb4aef6ac749c67bdc75" xr:uid="{647A27F4-FED4-41AC-A11C-1127D68C4973}"/>
-    <hyperlink ref="D47" r:id="rId46" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62192711&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=e87887be3794d388b692b30f0ca8d91615137da311b5fb4aef6ac749c67bdc75" xr:uid="{4BC3E66C-C424-4281-966A-54E6D14DBF51}"/>
-    <hyperlink ref="D48" r:id="rId47" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62192711&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=e87887be3794d388b692b30f0ca8d91615137da311b5fb4aef6ac749c67bdc75" xr:uid="{DD92E73F-E388-4988-B3F8-FFD5D0645316}"/>
-    <hyperlink ref="D49" r:id="rId48" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63323458&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=5828d816384aa23fc62f0755f28352c8132394646d3e103f7ad117465ef5ebea" xr:uid="{70EDEF0D-9044-4A6C-882E-A9886EAC6384}"/>
-    <hyperlink ref="D50" r:id="rId49" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63323458&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=5828d816384aa23fc62f0755f28352c8132394646d3e103f7ad117465ef5ebea" xr:uid="{34EC7D23-1696-4D38-AFA4-1529080A017B}"/>
-    <hyperlink ref="D51" r:id="rId50" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63323458&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=5828d816384aa23fc62f0755f28352c8132394646d3e103f7ad117465ef5ebea" xr:uid="{1A6EB807-0342-4674-A898-E61DD0D8DC08}"/>
-    <hyperlink ref="D52" r:id="rId51" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63323458&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=5828d816384aa23fc62f0755f28352c8132394646d3e103f7ad117465ef5ebea" xr:uid="{F4067453-7E61-4465-BD67-F55DEEB0AF47}"/>
-    <hyperlink ref="D53" r:id="rId52" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63323458&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=5828d816384aa23fc62f0755f28352c8132394646d3e103f7ad117465ef5ebea" xr:uid="{225D4C13-E6C5-47FA-8D67-1B9AA1B97F81}"/>
-    <hyperlink ref="D54" r:id="rId53" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae" xr:uid="{07EF22F4-6131-4189-AA3C-64B73D3BDDAD}"/>
-    <hyperlink ref="D55" r:id="rId54" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae" xr:uid="{D36CA003-BBCB-46E5-B65D-D70F233E8FA8}"/>
-    <hyperlink ref="D56" r:id="rId55" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae" xr:uid="{105549A4-3EE9-4732-9039-20FBF8BC1020}"/>
-    <hyperlink ref="D57" r:id="rId56" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae" xr:uid="{CDE46B15-9C16-4F1A-BD5F-69AECF66392B}"/>
-    <hyperlink ref="D58" r:id="rId57" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae" xr:uid="{B8DAD982-ACDB-48A6-A897-AFC655AD3870}"/>
-    <hyperlink ref="D59" r:id="rId58" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae" xr:uid="{8FA1E12B-5D95-4524-8727-E76918591470}"/>
-    <hyperlink ref="D60" r:id="rId59" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae" xr:uid="{66C0361B-74B5-4CDF-8BDF-13628D0A610F}"/>
-    <hyperlink ref="D61" r:id="rId60" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae" xr:uid="{0BFB4D9B-1AD1-4692-9A4D-7BDF8F2D5499}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=23399940&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=41be79199e8a526a309307c4d41ff24d68fc4c79877edbb3935125e33ceeb364"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=23399940&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=41be79199e8a526a309307c4d41ff24d68fc4c79877edbb3935125e33ceeb364"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=23399940&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=41be79199e8a526a309307c4d41ff24d68fc4c79877edbb3935125e33ceeb364"/>
+    <hyperlink ref="D17" r:id="rId16" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62611214&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=5fb38890a8a21efc7b7d01da94a0a45397646987f687a62c0c81dbbc459ffeaa"/>
+    <hyperlink ref="D18" r:id="rId17" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=45648870&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=57e6582eef98ed98b51e483ca728e9923f6be2671f939aadf2ce4bc9d77f6f49"/>
+    <hyperlink ref="D19" r:id="rId18" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62525332&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=f5548a6a2fb30b7be4286a22f9ca96b30a67a239cd89f8cbaabe7ae8bf887a52"/>
+    <hyperlink ref="D20" r:id="rId19" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62525332&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=f5548a6a2fb30b7be4286a22f9ca96b30a67a239cd89f8cbaabe7ae8bf887a52"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D23" r:id="rId21"/>
+    <hyperlink ref="D28" r:id="rId22"/>
+    <hyperlink ref="D22" r:id="rId23"/>
+    <hyperlink ref="D24" r:id="rId24"/>
+    <hyperlink ref="D25" r:id="rId25"/>
+    <hyperlink ref="D26" r:id="rId26"/>
+    <hyperlink ref="D27" r:id="rId27"/>
+    <hyperlink ref="D30" r:id="rId28"/>
+    <hyperlink ref="D29" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62942558&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=cc071f06cd7e85a6bab8526c0c3390953fcf1c2833d61d4dcd3a8034f8a9b256"/>
+    <hyperlink ref="D33" r:id="rId32" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62942558&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=cc071f06cd7e85a6bab8526c0c3390953fcf1c2833d61d4dcd3a8034f8a9b256"/>
+    <hyperlink ref="D34" r:id="rId33" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62942558&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=cc071f06cd7e85a6bab8526c0c3390953fcf1c2833d61d4dcd3a8034f8a9b256"/>
+    <hyperlink ref="D35" r:id="rId34" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62942558&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=cc071f06cd7e85a6bab8526c0c3390953fcf1c2833d61d4dcd3a8034f8a9b256"/>
+    <hyperlink ref="D36" r:id="rId35" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=arvore_visualizar&amp;acao_origem=procedimento_visualizar&amp;id_procedimento=63208355&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=6f0f9071d1b52eb89a59ce176688e9c0569f93e68c265de7648397d78c88f330"/>
+    <hyperlink ref="D37" r:id="rId36" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=arvore_visualizar&amp;acao_origem=procedimento_visualizar&amp;id_procedimento=63208355&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=6f0f9071d1b52eb89a59ce176688e9c0569f93e68c265de7648397d78c88f330"/>
+    <hyperlink ref="D38" r:id="rId37" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63075354&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=a3b5bd066afa6b89f1f0190e38a179b5364ad588cbe3145fd6011db53c7e5340"/>
+    <hyperlink ref="D39" r:id="rId38" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63075354&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=a3b5bd066afa6b89f1f0190e38a179b5364ad588cbe3145fd6011db53c7e5340"/>
+    <hyperlink ref="D40" r:id="rId39" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63075354&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=a3b5bd066afa6b89f1f0190e38a179b5364ad588cbe3145fd6011db53c7e5340"/>
+    <hyperlink ref="D41" r:id="rId40" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63075354&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=a3b5bd066afa6b89f1f0190e38a179b5364ad588cbe3145fd6011db53c7e5340"/>
+    <hyperlink ref="D42" r:id="rId41" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=60381710&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=c4651a9863b943a24b3c96ad6a729148367fb74e89f2d1d22dd1d0d324634a83"/>
+    <hyperlink ref="D43" r:id="rId42" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=60381710&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=c4651a9863b943a24b3c96ad6a729148367fb74e89f2d1d22dd1d0d324634a83"/>
+    <hyperlink ref="D44" r:id="rId43" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63274726&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=cafe0056f8f29a1589440b71bfb482a0c59645178335714c2f4c7b4e83c9d726"/>
+    <hyperlink ref="D45" r:id="rId44" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63274726&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=cafe0056f8f29a1589440b71bfb482a0c59645178335714c2f4c7b4e83c9d726"/>
+    <hyperlink ref="D46" r:id="rId45" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62192711&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=e87887be3794d388b692b30f0ca8d91615137da311b5fb4aef6ac749c67bdc75"/>
+    <hyperlink ref="D47" r:id="rId46" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62192711&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=e87887be3794d388b692b30f0ca8d91615137da311b5fb4aef6ac749c67bdc75"/>
+    <hyperlink ref="D48" r:id="rId47" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=62192711&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=e87887be3794d388b692b30f0ca8d91615137da311b5fb4aef6ac749c67bdc75"/>
+    <hyperlink ref="D49" r:id="rId48" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63323458&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=5828d816384aa23fc62f0755f28352c8132394646d3e103f7ad117465ef5ebea"/>
+    <hyperlink ref="D50" r:id="rId49" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63323458&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=5828d816384aa23fc62f0755f28352c8132394646d3e103f7ad117465ef5ebea"/>
+    <hyperlink ref="D51" r:id="rId50" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63323458&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=5828d816384aa23fc62f0755f28352c8132394646d3e103f7ad117465ef5ebea"/>
+    <hyperlink ref="D52" r:id="rId51" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63323458&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=5828d816384aa23fc62f0755f28352c8132394646d3e103f7ad117465ef5ebea"/>
+    <hyperlink ref="D53" r:id="rId52" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63323458&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=5828d816384aa23fc62f0755f28352c8132394646d3e103f7ad117465ef5ebea"/>
+    <hyperlink ref="D54" r:id="rId53" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae"/>
+    <hyperlink ref="D55" r:id="rId54" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae"/>
+    <hyperlink ref="D56" r:id="rId55" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae"/>
+    <hyperlink ref="D57" r:id="rId56" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae"/>
+    <hyperlink ref="D58" r:id="rId57" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae"/>
+    <hyperlink ref="D59" r:id="rId58" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae"/>
+    <hyperlink ref="D60" r:id="rId59" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae"/>
+    <hyperlink ref="D61" r:id="rId60" display="https://www.sei.mg.gov.br/sei/controlador.php?acao=procedimento_trabalhar&amp;acao_origem=procedimento_controlar&amp;acao_retorno=procedimento_controlar&amp;id_procedimento=63350889&amp;infra_sistema=100000100&amp;infra_unidade_atual=110002843&amp;infra_hash=67f22526f5daad26b588e7cbb54a81b67278e83410c899269258477da4884dae"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId61"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3759,7 +6133,7 @@
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -3772,7 +6146,7 @@
     <col min="9" max="9" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>204</v>
       </c>
@@ -3801,7 +6175,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>70</v>
       </c>
@@ -3828,7 +6202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>215</v>
       </c>
@@ -3851,7 +6225,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>217</v>
       </c>
@@ -3874,7 +6248,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -3895,7 +6269,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>88</v>
       </c>
@@ -3914,7 +6288,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>95</v>
       </c>
@@ -3933,7 +6307,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>102</v>
       </c>
@@ -3952,7 +6326,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -3975,7 +6349,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>220</v>
       </c>
@@ -3996,7 +6370,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>222</v>
       </c>
@@ -4017,7 +6391,7 @@
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>123</v>
       </c>
@@ -4044,7 +6418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>224</v>
       </c>
@@ -4071,7 +6445,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>226</v>
       </c>
@@ -4088,7 +6462,7 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>227</v>
       </c>
@@ -4113,7 +6487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>229</v>
       </c>
@@ -4132,7 +6506,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>231</v>
       </c>
@@ -4151,7 +6525,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>233</v>
       </c>
@@ -4172,7 +6546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>235</v>
       </c>
@@ -4191,7 +6565,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>155</v>
       </c>
@@ -4216,7 +6590,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>240</v>
       </c>
@@ -4241,7 +6615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>167</v>
       </c>
@@ -4256,7 +6630,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>242</v>
       </c>
@@ -4273,7 +6647,7 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
@@ -4292,7 +6666,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>76</v>
       </c>
@@ -4307,7 +6681,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>245</v>
       </c>
@@ -4322,7 +6696,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>167</v>
       </c>
@@ -4341,12 +6715,12 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>248</v>
       </c>
@@ -4354,7 +6728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>249</v>
       </c>
@@ -4362,7 +6736,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>250</v>
       </c>
@@ -4371,7 +6745,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>251</v>
       </c>
@@ -4382,7 +6756,7 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>252</v>
       </c>
@@ -4391,33 +6765,24 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>254</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H25" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:H25"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="2" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ab0a79935b361173aaab4e0b53380465">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d26c70ee2d89f29b12237211504e29cb" ns2:_="">
     <xsd:import namespace="6f4338ef-addb-4c87-aefe-1895241b335f"/>
@@ -4549,10 +6914,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9CFD906-D3F5-4528-8CEC-98A3B9D6D211}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62B8FAE3-6AC4-4C76-8B71-BC72A9A5ABF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f4338ef-addb-4c87-aefe-1895241b335f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62B8FAE3-6AC4-4C76-8B71-BC72A9A5ABF6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9CFD906-D3F5-4528-8CEC-98A3B9D6D211}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>